--- a/OnBoard/output/trust/catch/Catch_Trust_37.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_37.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,16 +642,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ostrea edulis</t>
+          <t>Pagellus erythrinus</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>OSTREDU</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="G7">
-        <v>5.5</v>
+        <v>0.014</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -680,16 +683,16 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pagellus erythrinus</t>
+          <t>Raja asterias</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="G8">
-        <v>0.014</v>
+        <v>0.139</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -721,19 +724,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Raja asterias</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G9">
-        <v>0.139</v>
+        <v>1.341</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -762,19 +765,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Squilla mantis</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="G10">
-        <v>1.341</v>
+        <v>0.119</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -803,19 +806,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Squilla mantis</t>
+          <t>Uranoscopus scaber</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="G11">
-        <v>0.119</v>
+        <v>0.054</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -839,24 +842,24 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Uranoscopus scaber</t>
+          <t>Arnoglossus laterna</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="G12">
-        <v>0.054</v>
+        <v>0.05</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -885,19 +888,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Arnoglossus laterna</t>
+          <t>Buglossidium luteum</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="G13">
-        <v>0.05</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -926,19 +929,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Buglossidium luteum</t>
+          <t>Chelidonichthys lucernus</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="G14">
-        <v>0.07199999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -967,19 +970,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Chelidonichthys lucernus</t>
+          <t>Gobius niger</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="G15">
-        <v>1.55</v>
+        <v>0.021</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1008,19 +1011,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Gobius niger</t>
+          <t>Melicertus kerathurus</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="G16">
-        <v>0.021</v>
+        <v>1.274</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1049,19 +1052,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Melicertus kerathurus</t>
+          <t>Merluccius merluccius</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="G17">
-        <v>1.274</v>
+        <v>0.122</v>
       </c>
       <c r="H17">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1090,19 +1093,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Merluccius merluccius</t>
+          <t>Octopus vulgaris</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>OCTOVUL</t>
         </is>
       </c>
       <c r="G18">
-        <v>0.122</v>
+        <v>1.057</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1131,16 +1134,16 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Octopus vulgaris</t>
+          <t>Pagellus erythrinus</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>OCTOVUL</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="G19">
-        <v>1.057</v>
+        <v>0.006</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1172,15 +1175,18 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ostrea edulis</t>
+          <t>Raja asterias</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>OSTREDU</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="G20">
+        <v>0.883</v>
+      </c>
+      <c r="H20">
         <v>6</v>
       </c>
       <c r="I20">
@@ -1210,19 +1216,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pagellus erythrinus</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G21">
-        <v>0.006</v>
+        <v>0.905</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1251,19 +1257,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Raja asterias</t>
+          <t>Squilla mantis</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="G22">
-        <v>0.883</v>
+        <v>0.123</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1292,19 +1298,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Uranoscopus scaber</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="G23">
-        <v>0.905</v>
+        <v>0.111</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1333,22 +1339,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Squilla mantis</t>
+          <t>Abra prismatica</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>ABRAPRI</t>
         </is>
       </c>
       <c r="G24">
-        <v>0.123</v>
+        <v>0.001</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>19.3903</v>
       </c>
     </row>
     <row r="25">
@@ -1374,22 +1380,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Uranoscopus scaber</t>
+          <t>Actiniaria nd</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>ACTINND</t>
         </is>
       </c>
       <c r="G25">
-        <v>0.111</v>
+        <v>0.002</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>19.3903</v>
       </c>
     </row>
     <row r="26">
@@ -1415,22 +1421,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Abra prismatica</t>
+          <t>Anadara kagoshimensis</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ABRAPRI</t>
+          <t>ANADKAG</t>
         </is>
       </c>
       <c r="G26">
-        <v>0.001</v>
+        <v>0.383</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I26">
-        <v>18.2403</v>
+        <v>19.3903</v>
       </c>
     </row>
     <row r="27">
@@ -1456,22 +1462,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Actiniaria nd</t>
+          <t>Anadara transversa</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ACTINND</t>
+          <t>ANADTRA</t>
         </is>
       </c>
       <c r="G27">
-        <v>0.002</v>
+        <v>0.923</v>
       </c>
       <c r="H27">
-        <v>15</v>
+        <v>410</v>
       </c>
       <c r="I27">
-        <v>18.2403</v>
+        <v>19.3903</v>
       </c>
     </row>
     <row r="28">
@@ -1497,22 +1503,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Anadara kagoshimensis</t>
+          <t>Anomia ephippium</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ANADKAG</t>
+          <t>ANOMEPH</t>
         </is>
       </c>
       <c r="G28">
-        <v>0.383</v>
+        <v>0.002</v>
       </c>
       <c r="H28">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <v>18.2403</v>
+        <v>19.3903</v>
       </c>
     </row>
     <row r="29">
@@ -1538,22 +1544,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Anadara transversa</t>
+          <t>Aporrhais pespelecani</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ANADTRA</t>
+          <t>APORPES</t>
         </is>
       </c>
       <c r="G29">
-        <v>0.923</v>
+        <v>0.172</v>
       </c>
       <c r="H29">
-        <v>410</v>
+        <v>32</v>
       </c>
       <c r="I29">
-        <v>18.2403</v>
+        <v>19.3903</v>
       </c>
     </row>
     <row r="30">
@@ -1579,22 +1585,22 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Anomia ephippium</t>
+          <t>Ascidiacea nd</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ANOMEPH</t>
+          <t>ASCIDND</t>
         </is>
       </c>
       <c r="G30">
-        <v>0.002</v>
+        <v>0.84</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>232</v>
       </c>
       <c r="I30">
-        <v>18.2403</v>
+        <v>19.3903</v>
       </c>
     </row>
     <row r="31">
@@ -1620,22 +1626,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Aporrhais pespelecani</t>
+          <t>Astropecten irregularis</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>APORPES</t>
+          <t>ASTRIRR</t>
         </is>
       </c>
       <c r="G31">
-        <v>0.172</v>
+        <v>0.041</v>
       </c>
       <c r="H31">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I31">
-        <v>18.2403</v>
+        <v>19.3903</v>
       </c>
     </row>
     <row r="32">
@@ -1661,22 +1667,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Ascidiacea nd</t>
+          <t>Biological discard</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ASCIDND</t>
+          <t>BIOLDIS</t>
         </is>
       </c>
       <c r="G32">
-        <v>0.84</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H32">
-        <v>232</v>
+        <v>-1</v>
       </c>
       <c r="I32">
-        <v>18.2403</v>
+        <v>19.3903</v>
       </c>
     </row>
     <row r="33">
@@ -1702,22 +1708,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Astropecten irregularis</t>
+          <t>Bolinus brandaris</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ASTRIRR</t>
+          <t>MUREBRA</t>
         </is>
       </c>
       <c r="G33">
-        <v>0.041</v>
+        <v>0.362</v>
       </c>
       <c r="H33">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I33">
-        <v>18.2403</v>
+        <v>19.3903</v>
       </c>
     </row>
     <row r="34">
@@ -1743,22 +1749,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Biological discard</t>
+          <t>Chlamys glabra</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>BIOLDIS</t>
+          <t>CHLAGLA</t>
         </is>
       </c>
       <c r="G34">
-        <v>0.008999999999999999</v>
+        <v>0.017</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I34">
-        <v>18.2403</v>
+        <v>19.3903</v>
       </c>
     </row>
     <row r="35">
@@ -1784,22 +1790,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Bolinus brandaris</t>
+          <t>Chlamys varia</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>MUREBRA</t>
+          <t>CHLAVAR</t>
         </is>
       </c>
       <c r="G35">
-        <v>0.362</v>
+        <v>0.015</v>
       </c>
       <c r="H35">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I35">
-        <v>18.2403</v>
+        <v>19.3903</v>
       </c>
     </row>
     <row r="36">
@@ -1825,22 +1831,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Chlamys glabra</t>
+          <t>Corbula gibba</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>CORBGIB</t>
         </is>
       </c>
       <c r="G36">
-        <v>0.017</v>
+        <v>0.004</v>
       </c>
       <c r="H36">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I36">
-        <v>18.2403</v>
+        <v>19.3903</v>
       </c>
     </row>
     <row r="37">
@@ -1866,22 +1872,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Chlamys varia</t>
+          <t>Eggs of Murex</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>CHLAVAR</t>
+          <t>EGGSMUR</t>
         </is>
       </c>
       <c r="G37">
-        <v>0.015</v>
+        <v>0.001</v>
       </c>
       <c r="H37">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>18.2403</v>
+        <v>19.3903</v>
       </c>
     </row>
     <row r="38">
@@ -1907,22 +1913,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Corbula gibba</t>
+          <t>Goneplax rhomboides</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CORBGIB</t>
+          <t>GONERHO</t>
         </is>
       </c>
       <c r="G38">
-        <v>0.004</v>
+        <v>0.027</v>
       </c>
       <c r="H38">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I38">
-        <v>18.2403</v>
+        <v>19.3903</v>
       </c>
     </row>
     <row r="39">
@@ -1948,22 +1954,22 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Eggs of Murex</t>
+          <t>Hexaplex trunculus</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>EGGSMUR</t>
+          <t>HEXATRU</t>
         </is>
       </c>
       <c r="G39">
-        <v>0.001</v>
+        <v>0.097</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>18.2403</v>
+        <v>19.3903</v>
       </c>
     </row>
     <row r="40">
@@ -1989,22 +1995,22 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Goneplax rhomboides</t>
+          <t>Medorippe lanata</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>GONERHO</t>
+          <t>MEDOLAN</t>
         </is>
       </c>
       <c r="G40">
         <v>0.027</v>
       </c>
       <c r="H40">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>18.2403</v>
+        <v>19.3903</v>
       </c>
     </row>
     <row r="41">
@@ -2030,22 +2036,22 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Hexaplex trunculus</t>
+          <t>Modiolus barbatus</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>HEXATRU</t>
+          <t>MODIBAR</t>
         </is>
       </c>
       <c r="G41">
-        <v>0.097</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I41">
-        <v>18.2403</v>
+        <v>19.3903</v>
       </c>
     </row>
     <row r="42">
@@ -2071,22 +2077,22 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Medorippe lanata</t>
+          <t>Musculus subpictus</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>MEDOLAN</t>
+          <t>MUSCSUB</t>
         </is>
       </c>
       <c r="G42">
-        <v>0.027</v>
+        <v>0.001</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I42">
-        <v>18.2403</v>
+        <v>19.3903</v>
       </c>
     </row>
     <row r="43">
@@ -2112,22 +2118,22 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Modiolus barbatus</t>
+          <t>Mytilus galloprovincialis</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>MODIBAR</t>
+          <t>MYTGALL</t>
         </is>
       </c>
       <c r="G43">
-        <v>0.06900000000000001</v>
+        <v>0.005</v>
       </c>
       <c r="H43">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>18.2403</v>
+        <v>19.3903</v>
       </c>
     </row>
     <row r="44">
@@ -2153,22 +2159,22 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Musculus subpictus</t>
+          <t>Ostrea edulis</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>MUSCSUB</t>
+          <t>OSTREDU</t>
         </is>
       </c>
       <c r="G44">
-        <v>0.001</v>
+        <v>0.961</v>
       </c>
       <c r="H44">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="I44">
-        <v>18.2403</v>
+        <v>19.3903</v>
       </c>
     </row>
     <row r="45">
@@ -2194,22 +2200,22 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Mytilus galloprovincialis</t>
+          <t>Pilumnus spinifer</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>MYTGALL</t>
+          <t>PILUSPI</t>
         </is>
       </c>
       <c r="G45">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>18.2403</v>
+        <v>19.3903</v>
       </c>
     </row>
     <row r="46">
@@ -2235,22 +2241,22 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Ostrea edulis</t>
+          <t>Polychaeta n.d. Tubes</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>OSTREDU</t>
+          <t>TUBEPOL</t>
         </is>
       </c>
       <c r="G46">
-        <v>0.961</v>
+        <v>0.001</v>
       </c>
       <c r="H46">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>18.2403</v>
+        <v>19.3903</v>
       </c>
     </row>
     <row r="47">
@@ -2276,22 +2282,22 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Pilumnus spinifer</t>
+          <t>Serpulidae NA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>PILUSPI</t>
+          <t>SERPSPP</t>
         </is>
       </c>
       <c r="G47">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>18.2403</v>
+        <v>19.3903</v>
       </c>
     </row>
     <row r="48">
@@ -2317,22 +2323,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Polychaeta n.d. Tubes</t>
+          <t>Shells NA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>TUBEPOL</t>
+          <t>SHELLS</t>
         </is>
       </c>
       <c r="G48">
-        <v>0.001</v>
+        <v>2.525</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I48">
-        <v>18.2403</v>
+        <v>19.3903</v>
       </c>
     </row>
     <row r="49">
@@ -2358,22 +2364,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Serpulidae NA</t>
+          <t>Turritella communis</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>SERPSPP</t>
+          <t>TURRCOM</t>
         </is>
       </c>
       <c r="G49">
-        <v>0.001</v>
+        <v>0.017</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="I49">
-        <v>18.2403</v>
+        <v>19.3903</v>
       </c>
     </row>
     <row r="50">
@@ -2399,104 +2405,22 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Shells NA</t>
+          <t>Wood NA</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>SHELLS</t>
+          <t>WOOD</t>
         </is>
       </c>
       <c r="G50">
-        <v>2.525</v>
+        <v>0.139</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I50">
-        <v>18.2403</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Turritella communis</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>TURRCOM</t>
-        </is>
-      </c>
-      <c r="G51">
-        <v>0.017</v>
-      </c>
-      <c r="H51">
-        <v>21</v>
-      </c>
-      <c r="I51">
-        <v>18.2403</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Wood NA</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>WOOD</t>
-        </is>
-      </c>
-      <c r="G52">
-        <v>0.139</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>18.2403</v>
+        <v>19.3903</v>
       </c>
     </row>
   </sheetData>
